--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/14.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/14.xlsx
@@ -479,13 +479,13 @@
         <v>-0.00644387162809777</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.545309641185574</v>
+        <v>-2.498036204098133</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0849402618006896</v>
+        <v>-0.05697742076360619</v>
       </c>
       <c r="G2" t="n">
-        <v>0.213916981927412</v>
+        <v>0.1930689552373267</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.00249459556752131</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.7548061015577</v>
+        <v>-2.69632898544467</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1316413600364952</v>
+        <v>-0.1129454442324093</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2679241608101248</v>
+        <v>0.2496443587119478</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.009799082428079595</v>
       </c>
       <c r="E4" t="n">
-        <v>-3.051308287715166</v>
+        <v>-2.984031461758229</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2432240753361016</v>
+        <v>-0.2044992198209302</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2805462765560304</v>
+        <v>0.2642448396210348</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.01509928608913909</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.27780919817806</v>
+        <v>-3.197907336379036</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3307495782418054</v>
+        <v>-0.2973772590279053</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2977310425860258</v>
+        <v>0.2736314887974868</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.02128957837214877</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.325350554090183</v>
+        <v>-3.251577974176794</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3811007967048828</v>
+        <v>-0.3554711125170715</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3283248902829267</v>
+        <v>0.3069016046450234</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.03198759802006539</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.113599779465694</v>
+        <v>-3.031190285070535</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.4546463391401358</v>
+        <v>-0.4121735401756017</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3274766023421087</v>
+        <v>0.3058226291058418</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.05070779639050715</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.759255598114744</v>
+        <v>-2.667058671342178</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.5579199207543808</v>
+        <v>-0.5229357084481174</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3045056657278422</v>
+        <v>0.2956241931908446</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.08325092513118448</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.33211122887895</v>
+        <v>-2.24189193724552</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.556189763766654</v>
+        <v>-0.5282721842203887</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2979982313866621</v>
+        <v>0.2983179819185711</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.139515207287101</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.945565686883008</v>
+        <v>-1.87103169189021</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.6404301584678131</v>
+        <v>-0.5984464756137335</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3129505838856581</v>
+        <v>0.3130250463382945</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.2286286804538253</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.433396877121237</v>
+        <v>-1.366366069267618</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.7806356565415937</v>
+        <v>-0.7431445416632402</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3232848042731099</v>
+        <v>0.3275715054680178</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.3566676238642563</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.9003961011983798</v>
+        <v>-0.8054287331733143</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.9391121964250057</v>
+        <v>-0.913536534016558</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3654553732828258</v>
+        <v>0.3759034774213685</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.5248943250065776</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.4082401706186937</v>
+        <v>-0.3005134423271771</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.257983779383284</v>
+        <v>-1.20922985353166</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3988612736028169</v>
+        <v>0.4112965031930862</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.727433150229479</v>
       </c>
       <c r="E14" t="n">
-        <v>0.19760532465578</v>
+        <v>0.2955730915076628</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.688166508696259</v>
+        <v>-1.641252243439181</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4958975297726999</v>
+        <v>0.5066507839622425</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.9538041805661942</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8156028001908868</v>
+        <v>0.9075975103028621</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.088484684333742</v>
+        <v>-2.037536306201484</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5715280208817705</v>
+        <v>0.5930491297417647</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>1.190479311360215</v>
       </c>
       <c r="E16" t="n">
-        <v>1.294952648965213</v>
+        <v>1.401753706767093</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.485245452797727</v>
+        <v>-2.418558486269518</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6853986315398308</v>
+        <v>0.7142798428260958</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.427154868493482</v>
       </c>
       <c r="E17" t="n">
-        <v>1.848478780950064</v>
+        <v>1.937312486945222</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.841138015149086</v>
+        <v>-2.77484234150924</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8036158053645264</v>
+        <v>0.82706417770452</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.662279727952637</v>
       </c>
       <c r="E18" t="n">
-        <v>2.263075496892589</v>
+        <v>2.343310979680385</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.172544110967815</v>
+        <v>-3.120964262036238</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9308735969681285</v>
+        <v>0.9652343687395739</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.898318574640582</v>
       </c>
       <c r="E19" t="n">
-        <v>2.715449497139286</v>
+        <v>2.789982032083993</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.442652277761879</v>
+        <v>-3.389975202689984</v>
       </c>
       <c r="G19" t="n">
-        <v>1.105020833011264</v>
+        <v>1.144786702815253</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>2.131214020362309</v>
       </c>
       <c r="E20" t="n">
-        <v>3.040825594342562</v>
+        <v>3.097617084934638</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.710544091553943</v>
+        <v>-3.662281471884911</v>
       </c>
       <c r="G20" t="n">
-        <v>1.241500288357045</v>
+        <v>1.286880043070578</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>2.348782689188118</v>
       </c>
       <c r="E21" t="n">
-        <v>3.375516798365836</v>
+        <v>3.445540704805817</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.935978436886428</v>
+        <v>-3.887969135561169</v>
       </c>
       <c r="G21" t="n">
-        <v>1.361669546479286</v>
+        <v>1.406732470757092</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.539283290492228</v>
       </c>
       <c r="E22" t="n">
-        <v>3.696909884377113</v>
+        <v>3.767479848803094</v>
       </c>
       <c r="F22" t="n">
-        <v>-4.101098195583475</v>
+        <v>-4.059148823859531</v>
       </c>
       <c r="G22" t="n">
-        <v>1.424375691887632</v>
+        <v>1.476496488636891</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.692639876316952</v>
       </c>
       <c r="E23" t="n">
-        <v>3.908088320149965</v>
+        <v>3.969334417467404</v>
       </c>
       <c r="F23" t="n">
-        <v>-4.201961967823675</v>
+        <v>-4.171124292095592</v>
       </c>
       <c r="G23" t="n">
-        <v>1.515846244734971</v>
+        <v>1.556356739065324</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.803515499673245</v>
       </c>
       <c r="E24" t="n">
-        <v>4.062812536439742</v>
+        <v>4.132778040956087</v>
       </c>
       <c r="F24" t="n">
-        <v>-4.253684901468161</v>
+        <v>-4.230354793023531</v>
       </c>
       <c r="G24" t="n">
-        <v>1.564693613664413</v>
+        <v>1.608930150722765</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.871774681364682</v>
       </c>
       <c r="E25" t="n">
-        <v>4.166689117915532</v>
+        <v>4.225953929973607</v>
       </c>
       <c r="F25" t="n">
-        <v>-4.275511890403201</v>
+        <v>-4.262734279535613</v>
       </c>
       <c r="G25" t="n">
-        <v>1.578803518414954</v>
+        <v>1.622977273405397</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.898510285939826</v>
       </c>
       <c r="E26" t="n">
-        <v>4.19618500944807</v>
+        <v>4.25772311638369</v>
       </c>
       <c r="F26" t="n">
-        <v>-4.177754370476409</v>
+        <v>-4.179485987512226</v>
       </c>
       <c r="G26" t="n">
-        <v>1.524340804527878</v>
+        <v>1.579447399623045</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.886206767217163</v>
       </c>
       <c r="E27" t="n">
-        <v>4.146029437429174</v>
+        <v>4.217564493643246</v>
       </c>
       <c r="F27" t="n">
-        <v>-4.101222299671202</v>
+        <v>-4.10512354817011</v>
       </c>
       <c r="G27" t="n">
-        <v>1.503875310437611</v>
+        <v>1.553083311245507</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.839417755046803</v>
       </c>
       <c r="E28" t="n">
-        <v>4.102010447536368</v>
+        <v>4.171245928007258</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.931769118240338</v>
+        <v>-3.9386568951092</v>
       </c>
       <c r="G28" t="n">
-        <v>1.403711631257001</v>
+        <v>1.469755446601166</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.763823219457497</v>
       </c>
       <c r="E29" t="n">
-        <v>3.943377682507229</v>
+        <v>4.008424285005302</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.761534811080839</v>
+        <v>-3.765787931169656</v>
       </c>
       <c r="G29" t="n">
-        <v>1.302885090243119</v>
+        <v>1.36133957561074</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.664808396013099</v>
       </c>
       <c r="E30" t="n">
-        <v>3.837965130439803</v>
+        <v>3.90732471499842</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.600084883260291</v>
+        <v>-3.60557101396188</v>
       </c>
       <c r="G30" t="n">
-        <v>1.209155842999145</v>
+        <v>1.270797613349219</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.548379935825921</v>
       </c>
       <c r="E31" t="n">
-        <v>3.688187557082025</v>
+        <v>3.747986746741372</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.442818723244243</v>
+        <v>-3.451767357993422</v>
       </c>
       <c r="G31" t="n">
-        <v>1.107984730635808</v>
+        <v>1.176631811726063</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.421548702367473</v>
       </c>
       <c r="E32" t="n">
-        <v>3.533864854017248</v>
+        <v>3.580830220957508</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.238769702299297</v>
+        <v>-3.268001325127381</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9895368692127492</v>
+        <v>1.05372788352955</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.290256594484704</v>
       </c>
       <c r="E33" t="n">
-        <v>3.351014271304206</v>
+        <v>3.400930395436192</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.090267480948928</v>
+        <v>-3.127781226572691</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9417582554858529</v>
+        <v>1.000900423504292</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>2.158881614498388</v>
       </c>
       <c r="E34" t="n">
-        <v>3.167243858293892</v>
+        <v>3.197828945702247</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.082767943929976</v>
+        <v>-3.110363582872195</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8479706063182417</v>
+        <v>0.8998650956134095</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>2.031348212594602</v>
       </c>
       <c r="E35" t="n">
-        <v>2.88260602292315</v>
+        <v>2.883628056586786</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.967980423070824</v>
+        <v>-2.995032924123227</v>
       </c>
       <c r="G35" t="n">
-        <v>0.7985859396913458</v>
+        <v>0.8511389106755136</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.908927053266147</v>
       </c>
       <c r="E36" t="n">
-        <v>2.590780370800865</v>
+        <v>2.60544217372977</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.908514124376204</v>
+        <v>-2.939632859361787</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7374303653555442</v>
+        <v>0.7797819803285327</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.790363223981161</v>
       </c>
       <c r="E37" t="n">
-        <v>2.323744875214118</v>
+        <v>2.332518304192388</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.846132839668085</v>
+        <v>-2.87596308221344</v>
       </c>
       <c r="G37" t="n">
-        <v>0.697116977517464</v>
+        <v>0.7292847570563645</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.675792073451688</v>
       </c>
       <c r="E38" t="n">
-        <v>2.012075709488293</v>
+        <v>2.024065624410835</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.772342739177605</v>
+        <v>-2.80312055293396</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6214310045809389</v>
+        <v>0.65454781537893</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.564437546233898</v>
       </c>
       <c r="E39" t="n">
-        <v>1.730909868477732</v>
+        <v>1.732402037626641</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.641653834560367</v>
+        <v>-2.680587476952538</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5988221598932177</v>
+        <v>0.6272303155980282</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.454025441145243</v>
       </c>
       <c r="E40" t="n">
-        <v>1.504249082748884</v>
+        <v>1.482895879419344</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.523841824080898</v>
+        <v>-2.563858822156524</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5261234453506918</v>
+        <v>0.5548922329339567</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.344172640504782</v>
       </c>
       <c r="E41" t="n">
-        <v>1.249438569827316</v>
+        <v>1.238209339960137</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.409566780101656</v>
+        <v>-2.451079597446418</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4629398642166178</v>
+        <v>0.4897740880794288</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.234532886026721</v>
       </c>
       <c r="E42" t="n">
-        <v>1.036348931103464</v>
+        <v>1.017733317944378</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.287327173786507</v>
+        <v>-2.331146867114905</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4005928906386346</v>
+        <v>0.4219402537758107</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.124490787325684</v>
       </c>
       <c r="E43" t="n">
-        <v>0.8353528707166088</v>
+        <v>0.8130608564646147</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.189465990445261</v>
+        <v>-2.226306653899115</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3470646075297398</v>
+        <v>0.3627528242665538</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>1.015410145468818</v>
       </c>
       <c r="E44" t="n">
-        <v>0.67498556855547</v>
+        <v>0.648678422053477</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.12350831793846</v>
+        <v>-2.163936319551677</v>
       </c>
       <c r="G44" t="n">
-        <v>0.2536565708657649</v>
+        <v>0.2688790322615791</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.9096602891708926</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4954551352011546</v>
+        <v>0.4707423612144339</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.014223718333944</v>
+        <v>-2.056016134888115</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2204287964128648</v>
+        <v>0.2371492671499512</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.8079056056424517</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3235695136508371</v>
+        <v>0.3022119301770246</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.941308916673964</v>
+        <v>-1.982940727938135</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1921067835454178</v>
+        <v>0.2139826840915029</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.7115170243084072</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1516167298883378</v>
+        <v>0.1193219261655283</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.87733033935439</v>
+        <v>-1.927972107387558</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1263491376270718</v>
+        <v>0.1421964996057949</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.6218360436901598</v>
       </c>
       <c r="E48" t="n">
-        <v>0.03359958265209675</v>
+        <v>-0.0003158744516214098</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.830062742459312</v>
+        <v>-1.869667276949256</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1132452060111663</v>
+        <v>0.1295145218881619</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.5387981219394771</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.1014519456607761</v>
+        <v>-0.1296089730939503</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.75084637323897</v>
+        <v>-1.795597577249367</v>
       </c>
       <c r="G49" t="n">
-        <v>0.06034036343708957</v>
+        <v>0.07776311730590307</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.4624777165131575</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.2039385613540213</v>
+        <v>-0.2380978464889212</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.727053429549521</v>
+        <v>-1.769425485195783</v>
       </c>
       <c r="G50" t="n">
-        <v>0.02114245234046374</v>
+        <v>0.03874041198018628</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.3940163188562168</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.3112024544007198</v>
+        <v>-0.3528474060977086</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.671873832049809</v>
+        <v>-1.71872823533516</v>
       </c>
       <c r="G51" t="n">
-        <v>0.01567895238428339</v>
+        <v>0.03601596224255065</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.332993703660599</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.3685619037001589</v>
+        <v>-0.4011735378586956</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.666554876854629</v>
+        <v>-1.716098688723434</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.04320040697779171</v>
+        <v>-0.02487534338879663</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.2795315287373871</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.4763222130977663</v>
+        <v>-0.5055173347235766</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.658593234614903</v>
+        <v>-1.708900651635254</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.04429252294979142</v>
+        <v>-0.02947887501943176</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.23408197568756</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.5210741471322089</v>
+        <v>-0.5295161451938429</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.647784498597906</v>
+        <v>-1.691797648298349</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.07949428242160014</v>
+        <v>-0.0622642549007866</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1958673772361762</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.6455476270264482</v>
+        <v>-0.6519543180493556</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.63432577529591</v>
+        <v>-1.673336800236899</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1006868804611399</v>
+        <v>-0.09001976910896096</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.164261499191139</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.7260721993362447</v>
+        <v>-0.7334658828686064</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.600201531315192</v>
+        <v>-1.629780645588911</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.1254799570928605</v>
+        <v>-0.1086061813062287</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.1392552212281236</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.860509047402845</v>
+        <v>-0.8666354091922979</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.637104246812909</v>
+        <v>-1.674055143897627</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1275459251414963</v>
+        <v>-0.106842443212411</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.1203181730237572</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.931352040821826</v>
+        <v>-0.9339553065679161</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.614971377802824</v>
+        <v>-1.639342500536272</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1645610643422137</v>
+        <v>-0.1518513457108535</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.1066900150921087</v>
       </c>
       <c r="E59" t="n">
-        <v>-1.046263665768704</v>
+        <v>-1.054568419309793</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.624883644292003</v>
+        <v>-1.645233794583089</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1907543270931157</v>
+        <v>-0.1765904005632104</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.09825575157103214</v>
       </c>
       <c r="E60" t="n">
-        <v>-1.088513077375329</v>
+        <v>-1.084556347048967</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.61986545900355</v>
+        <v>-1.648736449953179</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.2030785930284761</v>
+        <v>-0.1920698304230245</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.0938150335391576</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.172806033807761</v>
+        <v>-1.166726393557217</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.669269106255628</v>
+        <v>-1.68665681897026</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.264231247268096</v>
+        <v>-0.2447031040521921</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.09232450648866858</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.223487223139384</v>
+        <v>-1.21721485654084</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.672771761625718</v>
+        <v>-1.684452146352987</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.3070748984477208</v>
+        <v>-0.292296291671543</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.09269088285127364</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.283150628326277</v>
+        <v>-1.289285750404275</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.721208857041614</v>
+        <v>-1.738627230766155</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3258000152136249</v>
+        <v>-0.3109951275718107</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.09404698297407119</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.347789877406987</v>
+        <v>-1.361175598304438</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.749409685917515</v>
+        <v>-1.768972870287601</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.3723843096021578</v>
+        <v>-0.3609068715595246</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.09548197376572309</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.363244486449255</v>
+        <v>-1.386005176138431</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.834338493293538</v>
+        <v>-1.852387607793351</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3682990950437953</v>
+        <v>-0.3602148087644338</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.09679695584159287</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.387528006297249</v>
+        <v>-1.41140563277597</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.949979412261825</v>
+        <v>-1.961776600836368</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3979263909045146</v>
+        <v>-0.3914145764190619</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.09740704786287013</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.425636721518057</v>
+        <v>-1.451698579940777</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.019901845359488</v>
+        <v>-2.035524359932211</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3714104575255218</v>
+        <v>-0.3636707425956148</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.09710614465921925</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.451989129510868</v>
+        <v>-1.478902195970588</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.135436180817139</v>
+        <v>-2.147475007350727</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4415219668509575</v>
+        <v>-0.4315629788228693</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.09585321892215183</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.445713842816142</v>
+        <v>-1.474183320540771</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.283664643150463</v>
+        <v>-2.299285697675095</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4621378458945883</v>
+        <v>-0.4480527619615921</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.09367553635545155</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.473561340054044</v>
+        <v>-1.492121471385675</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.415763954223518</v>
+        <v>-2.427163279693288</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4777136389284023</v>
+        <v>-0.4607186791502251</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.09103411314995505</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.511159038443034</v>
+        <v>-1.535801730121391</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.591869844780607</v>
+        <v>-2.59369709496638</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5363214293455684</v>
+        <v>-0.523070032872481</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.08842554772081868</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.520328140453941</v>
+        <v>-1.544664222033207</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.690755251857626</v>
+        <v>-2.687253326511582</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.5550918076022906</v>
+        <v>-0.5392663463449312</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.08675357826512596</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.504546480639308</v>
+        <v>-1.531147096807574</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.819520543115092</v>
+        <v>-2.813342349618412</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5709508499657409</v>
+        <v>-0.541365895499658</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.08662092024635379</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.560765632379748</v>
+        <v>-1.58433956885556</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.961172218822917</v>
+        <v>-2.950351072397147</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5825202710381014</v>
+        <v>-0.5484704895100196</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.08864699547182582</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.440245962715689</v>
+        <v>-1.468735881113591</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.029128697166172</v>
+        <v>-3.01772645160022</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.6182666284478191</v>
+        <v>-0.5875822577692819</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.09335678909780959</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.335306466229717</v>
+        <v>-1.353616929337804</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.095063008903518</v>
+        <v>-3.080114306524749</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.6080798729175492</v>
+        <v>-0.5782598507088299</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.1005350524616741</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.225919663258838</v>
+        <v>-1.246519481773469</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.176009535111587</v>
+        <v>-3.162092356709045</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5852972825070097</v>
+        <v>-0.5451941415940206</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.1099113865202413</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.0945883374816</v>
+        <v>-1.104769252819507</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.239350071415434</v>
+        <v>-3.214381058988758</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5983471923435517</v>
+        <v>-0.5579724824856535</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.1203631720661431</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.8932404055048362</v>
+        <v>-0.9000617501855617</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.306926207231006</v>
+        <v>-3.284675074325558</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.5947583941360981</v>
+        <v>-0.559403329614744</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.1312197355189564</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.6869429104998915</v>
+        <v>-0.685399639667801</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.352678274207721</v>
+        <v>-3.317498415457276</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5612400701131072</v>
+        <v>-0.5168210270433918</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.1422142561762119</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.4312271677619602</v>
+        <v>-0.4360745274237771</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.404130368931344</v>
+        <v>-3.361229775876173</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5219706166600268</v>
+        <v>-0.481188553384765</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.1533504766541925</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1742893647719383</v>
+        <v>-0.1562198095988523</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.353778420444221</v>
+        <v>-3.304065242996871</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4779487066710386</v>
+        <v>-0.4457473460260473</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.1654655912582939</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1186152628895285</v>
+        <v>0.125386965935163</v>
       </c>
       <c r="F83" t="n">
-        <v>-3.354318638237857</v>
+        <v>-3.28942680083742</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.4592265100013164</v>
+        <v>-0.4253577744365073</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.1792767202777438</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4430744498917141</v>
+        <v>0.4583538531630736</v>
       </c>
       <c r="F84" t="n">
-        <v>-3.300732683229372</v>
+        <v>-3.244192320908932</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.4121516394542381</v>
+        <v>-0.3776886643164292</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.1953167854562808</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7283255054606375</v>
+        <v>0.7302892701429097</v>
       </c>
       <c r="F85" t="n">
-        <v>-3.226598741413482</v>
+        <v>-3.143801604250187</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3698774070300676</v>
+        <v>-0.3379403150895308</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.2138833662950538</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9854808556162048</v>
+        <v>0.9937914493496571</v>
       </c>
       <c r="F86" t="n">
-        <v>-3.146406330044368</v>
+        <v>-3.048272847734167</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2928408896094519</v>
+        <v>-0.2569470673425525</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.2342219553262688</v>
       </c>
       <c r="E87" t="n">
-        <v>1.174847632958972</v>
+        <v>1.183367013569424</v>
       </c>
       <c r="F87" t="n">
-        <v>-3.035019991212988</v>
+        <v>-2.92094351377411</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2584728175975521</v>
+        <v>-0.2244347164541976</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.2546947867626083</v>
       </c>
       <c r="E88" t="n">
-        <v>1.345687860076199</v>
+        <v>1.352301877928015</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.805768350146823</v>
+        <v>-2.684335420401901</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.2566331570030072</v>
+        <v>-0.2234915253874706</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.2729017625707204</v>
       </c>
       <c r="E89" t="n">
-        <v>1.48491366588098</v>
+        <v>1.49763944504134</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.570048696037931</v>
+        <v>-2.445357668978147</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1845900040532992</v>
+        <v>-0.1514950939766717</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.2852609650008524</v>
       </c>
       <c r="E90" t="n">
-        <v>1.614355689428581</v>
+        <v>1.617083059262399</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.283958112816736</v>
+        <v>-2.157422314994088</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.1729066992298478</v>
+        <v>-0.1518601059993989</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.2884754870924064</v>
       </c>
       <c r="E91" t="n">
-        <v>1.65285131739348</v>
+        <v>1.671529712620475</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.993812976047086</v>
+        <v>-1.864062882352303</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.102203870427594</v>
+        <v>-0.08991318559832462</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.2790685419305474</v>
       </c>
       <c r="E92" t="n">
-        <v>1.615495986987581</v>
+        <v>1.645254687176482</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.627108757582548</v>
+        <v>-1.515949456229305</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.1130096863484093</v>
+        <v>-0.1035558749597755</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.2558295562701782</v>
       </c>
       <c r="E93" t="n">
-        <v>1.645339369965755</v>
+        <v>1.678786151632291</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.282654211975368</v>
+        <v>-1.169015748963762</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.142231088839856</v>
+        <v>-0.1305696847377683</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.218366731951034</v>
       </c>
       <c r="E94" t="n">
-        <v>1.591961471810224</v>
+        <v>1.641841094739938</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.02194656481462</v>
+        <v>-0.9313812417836441</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1452782092055825</v>
+        <v>-0.1327334760084949</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.1682016663353436</v>
       </c>
       <c r="E95" t="n">
-        <v>1.58487001823268</v>
+        <v>1.637636156238121</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.7152970444253385</v>
+        <v>-0.6425472281996307</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.2029647092773852</v>
+        <v>-0.1959068368059325</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.1086678158420558</v>
       </c>
       <c r="E96" t="n">
-        <v>1.481891366332799</v>
+        <v>1.549690159482235</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.4230070970101443</v>
+        <v>-0.3684713807185225</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.2268686166217424</v>
+        <v>-0.2235732880805615</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.04640441241400372</v>
       </c>
       <c r="E97" t="n">
-        <v>1.359460493717741</v>
+        <v>1.428176197068268</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.2090458095760199</v>
+        <v>-0.1793820125130279</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.333602512211441</v>
+        <v>-0.3249473471285342</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.01351337650784576</v>
       </c>
       <c r="E98" t="n">
-        <v>1.288591219433123</v>
+        <v>1.347188789513653</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.04260324730861006</v>
+        <v>-0.0154375925291628</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.3415539341145298</v>
+        <v>-0.3218374446948987</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.06551389343732729</v>
       </c>
       <c r="E99" t="n">
-        <v>1.133012875010165</v>
+        <v>1.203236808038601</v>
       </c>
       <c r="F99" t="n">
-        <v>0.07804782668363028</v>
+        <v>0.09353455678389884</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.3536314519225265</v>
+        <v>-0.3369431022434401</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1075248255127967</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9638195821394834</v>
+        <v>1.040955382830281</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1783399900962397</v>
+        <v>0.1765514311848765</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.3926161959978797</v>
+        <v>-0.3717871499329762</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1389644701649777</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7931691612740747</v>
+        <v>0.8873145222239585</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2273304437385902</v>
+        <v>0.2259711389659542</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.3586788381727979</v>
+        <v>-0.3288982372625332</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.164677968154015</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6917308601101019</v>
+        <v>0.778898651233533</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2448948222722218</v>
+        <v>0.2462526669967669</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.3730267307621577</v>
+        <v>-0.3496703414518912</v>
       </c>
     </row>
   </sheetData>
